--- a/diary/2017-4-09(L).xlsx
+++ b/diary/2017-4-09(L).xlsx
@@ -473,7 +473,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -664,7 +664,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="1">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -693,7 +693,7 @@
       </c>
       <c r="E15" s="1">
         <f>SUM(E2:E14)</f>
-        <v>329</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
